--- a/Documentation/Places.xlsx
+++ b/Documentation/Places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78B47AF-9AC5-47BA-AA45-11163EEC213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D74A10-022F-4206-9220-292CA8AE7B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E333B1B-9BDB-4E55-B4AF-13CEC195BF96}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="126">
   <si>
     <t>Kind of place</t>
   </si>
@@ -375,6 +375,45 @@
   </si>
   <si>
     <t>Trapeang Rohal</t>
+  </si>
+  <si>
+    <t>Prasat Srot</t>
+  </si>
+  <si>
+    <t>ប្រាសាទស្រុត</t>
+  </si>
+  <si>
+    <t>Prasat Sralau</t>
+  </si>
+  <si>
+    <t>Monument F, Prasat Andong Kuk</t>
+  </si>
+  <si>
+    <t>ប្រាសាទស្រឡៅ</t>
+  </si>
+  <si>
+    <t>Temple, Arogyasala (Hospital)</t>
+  </si>
+  <si>
+    <t>10th Century - 12th Century</t>
+  </si>
+  <si>
+    <t>Jayavarman IV, Jayavarman VII</t>
+  </si>
+  <si>
+    <t>Tuol Balang Ling</t>
+  </si>
+  <si>
+    <t>ទួលបល្ល័ង្កលិង្គ</t>
+  </si>
+  <si>
+    <t>Kroes Ling (Prasat Pram)</t>
+  </si>
+  <si>
+    <t>Mound</t>
+  </si>
+  <si>
+    <t>"POLYGON((104.541389 13.793333, 104.550000 13.793889, 104.564722 13.773056, 104.564167 13.760000, 104.560833 13.755833, 104.548611 13.750556, 104.535278 13.749167, 104.540000 13.770556, 104.542500 13.769167, 104.526667 13.791667, 104.533056 13.793056, 104.535278 13.785833, 104.541389 13.787222, 104.541389 13.793333))"^^&lt;http://www.opengis.net/def/crs/OGC/1.3/CRS84&gt;</t>
   </si>
 </sst>
 </file>
@@ -755,10 +794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9A9E9A-EC31-4E1B-BC57-C8B63E4C4CD3}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,6 +892,9 @@
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
       <c r="I2" t="s">
         <v>25</v>
       </c>
@@ -899,6 +942,9 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
       <c r="I3" t="s">
         <v>25</v>
       </c>
@@ -926,19 +972,19 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -946,6 +992,9 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
       <c r="I4" t="s">
         <v>25</v>
       </c>
@@ -965,21 +1014,21 @@
         <v>24</v>
       </c>
       <c r="O4">
-        <v>13.78613</v>
+        <v>13.784230000000001</v>
       </c>
       <c r="P4">
-        <v>104.54651</v>
+        <v>104.54199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -993,6 +1042,9 @@
       <c r="G5" t="s">
         <v>21</v>
       </c>
+      <c r="H5" t="s">
+        <v>125</v>
+      </c>
       <c r="I5" t="s">
         <v>25</v>
       </c>
@@ -1012,27 +1064,27 @@
         <v>24</v>
       </c>
       <c r="O5">
-        <v>13.787190000000001</v>
+        <v>13.78613</v>
       </c>
       <c r="P5">
-        <v>104.54622000000001</v>
+        <v>104.54651</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -1040,6 +1092,9 @@
       <c r="G6" t="s">
         <v>21</v>
       </c>
+      <c r="H6" t="s">
+        <v>125</v>
+      </c>
       <c r="I6" t="s">
         <v>25</v>
       </c>
@@ -1059,27 +1114,27 @@
         <v>24</v>
       </c>
       <c r="O6">
-        <v>13.785539999999999</v>
+        <v>13.787190000000001</v>
       </c>
       <c r="P6">
-        <v>104.54686</v>
+        <v>104.54622000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -1087,6 +1142,9 @@
       <c r="G7" t="s">
         <v>21</v>
       </c>
+      <c r="H7" t="s">
+        <v>125</v>
+      </c>
       <c r="I7" t="s">
         <v>25</v>
       </c>
@@ -1106,27 +1164,27 @@
         <v>24</v>
       </c>
       <c r="O7">
-        <v>13.78471</v>
+        <v>13.785539999999999</v>
       </c>
       <c r="P7">
-        <v>104.5468</v>
+        <v>104.54686</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -1134,6 +1192,9 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
+      <c r="H8" t="s">
+        <v>125</v>
+      </c>
       <c r="I8" t="s">
         <v>25</v>
       </c>
@@ -1153,27 +1214,27 @@
         <v>24</v>
       </c>
       <c r="O8">
-        <v>13.78213</v>
+        <v>13.78471</v>
       </c>
       <c r="P8">
-        <v>104.54742</v>
+        <v>104.5468</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1181,6 +1242,9 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>
@@ -1200,27 +1264,27 @@
         <v>24</v>
       </c>
       <c r="O9">
-        <v>13.778650000000001</v>
+        <v>13.78213</v>
       </c>
       <c r="P9">
-        <v>104.53958</v>
+        <v>104.54742</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1228,6 +1292,9 @@
       <c r="G10" t="s">
         <v>21</v>
       </c>
+      <c r="H10" t="s">
+        <v>125</v>
+      </c>
       <c r="I10" t="s">
         <v>25</v>
       </c>
@@ -1247,21 +1314,21 @@
         <v>24</v>
       </c>
       <c r="O10">
-        <v>13.77971</v>
+        <v>13.778650000000001</v>
       </c>
       <c r="P10">
-        <v>104.54893</v>
+        <v>104.53958</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -1275,6 +1342,9 @@
       <c r="G11" t="s">
         <v>21</v>
       </c>
+      <c r="H11" t="s">
+        <v>125</v>
+      </c>
       <c r="I11" t="s">
         <v>25</v>
       </c>
@@ -1294,27 +1364,27 @@
         <v>24</v>
       </c>
       <c r="O11">
-        <v>13.77745</v>
+        <v>13.77971</v>
       </c>
       <c r="P11">
-        <v>104.55021000000001</v>
+        <v>104.54893</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1322,6 +1392,9 @@
       <c r="G12" t="s">
         <v>21</v>
       </c>
+      <c r="H12" t="s">
+        <v>125</v>
+      </c>
       <c r="I12" t="s">
         <v>25</v>
       </c>
@@ -1341,27 +1414,27 @@
         <v>24</v>
       </c>
       <c r="O12">
-        <v>13.77613</v>
+        <v>13.77745</v>
       </c>
       <c r="P12">
-        <v>104.55292</v>
+        <v>104.55021000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1369,6 +1442,9 @@
       <c r="G13" t="s">
         <v>21</v>
       </c>
+      <c r="H13" t="s">
+        <v>125</v>
+      </c>
       <c r="I13" t="s">
         <v>25</v>
       </c>
@@ -1388,24 +1464,27 @@
         <v>24</v>
       </c>
       <c r="O13">
-        <v>13.774990000000001</v>
+        <v>13.77613</v>
       </c>
       <c r="P13">
-        <v>104.55458</v>
+        <v>104.55292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1413,6 +1492,9 @@
       <c r="G14" t="s">
         <v>21</v>
       </c>
+      <c r="H14" t="s">
+        <v>125</v>
+      </c>
       <c r="I14" t="s">
         <v>25</v>
       </c>
@@ -1432,27 +1514,24 @@
         <v>24</v>
       </c>
       <c r="O14">
-        <v>13.77214</v>
+        <v>13.774990000000001</v>
       </c>
       <c r="P14">
-        <v>104.55604</v>
+        <v>104.55458</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1460,6 +1539,9 @@
       <c r="G15" t="s">
         <v>21</v>
       </c>
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
       <c r="I15" t="s">
         <v>25</v>
       </c>
@@ -1479,27 +1561,27 @@
         <v>24</v>
       </c>
       <c r="O15">
-        <v>13.766999999999999</v>
+        <v>13.77214</v>
       </c>
       <c r="P15">
-        <v>104.56116</v>
+        <v>104.55604</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1507,6 +1589,9 @@
       <c r="G16" t="s">
         <v>21</v>
       </c>
+      <c r="H16" t="s">
+        <v>125</v>
+      </c>
       <c r="I16" t="s">
         <v>25</v>
       </c>
@@ -1526,27 +1611,27 @@
         <v>24</v>
       </c>
       <c r="O16">
-        <v>13.769550000000001</v>
+        <v>13.766999999999999</v>
       </c>
       <c r="P16">
-        <v>104.55847</v>
+        <v>104.56116</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -1554,6 +1639,9 @@
       <c r="G17" t="s">
         <v>21</v>
       </c>
+      <c r="H17" t="s">
+        <v>125</v>
+      </c>
       <c r="I17" t="s">
         <v>25</v>
       </c>
@@ -1573,27 +1661,27 @@
         <v>24</v>
       </c>
       <c r="O17">
-        <v>13.76492</v>
+        <v>13.769550000000001</v>
       </c>
       <c r="P17">
-        <v>104.55287</v>
+        <v>104.55847</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
@@ -1601,6 +1689,9 @@
       <c r="G18" t="s">
         <v>21</v>
       </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
       <c r="I18" t="s">
         <v>25</v>
       </c>
@@ -1620,21 +1711,24 @@
         <v>24</v>
       </c>
       <c r="O18">
-        <v>13.769130000000001</v>
+        <v>13.76492</v>
       </c>
       <c r="P18">
-        <v>104.55247</v>
+        <v>104.55287</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
@@ -1645,6 +1739,9 @@
       <c r="G19" t="s">
         <v>21</v>
       </c>
+      <c r="H19" t="s">
+        <v>125</v>
+      </c>
       <c r="I19" t="s">
         <v>25</v>
       </c>
@@ -1664,27 +1761,24 @@
         <v>24</v>
       </c>
       <c r="O19">
-        <v>13.769209999999999</v>
+        <v>13.769130000000001</v>
       </c>
       <c r="P19">
-        <v>104.55258000000001</v>
+        <v>104.55247</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -1692,6 +1786,9 @@
       <c r="G20" t="s">
         <v>21</v>
       </c>
+      <c r="H20" t="s">
+        <v>125</v>
+      </c>
       <c r="I20" t="s">
         <v>25</v>
       </c>
@@ -1711,27 +1808,27 @@
         <v>24</v>
       </c>
       <c r="O20">
-        <v>13.768129999999999</v>
+        <v>13.769209999999999</v>
       </c>
       <c r="P20">
-        <v>104.54997</v>
+        <v>104.55258000000001</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -1739,6 +1836,9 @@
       <c r="G21" t="s">
         <v>21</v>
       </c>
+      <c r="H21" t="s">
+        <v>125</v>
+      </c>
       <c r="I21" t="s">
         <v>25</v>
       </c>
@@ -1758,27 +1858,27 @@
         <v>24</v>
       </c>
       <c r="O21">
-        <v>13.768750000000001</v>
+        <v>13.768129999999999</v>
       </c>
       <c r="P21">
-        <v>104.54992</v>
+        <v>104.54997</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -1786,6 +1886,9 @@
       <c r="G22" t="s">
         <v>21</v>
       </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
       <c r="I22" t="s">
         <v>25</v>
       </c>
@@ -1805,27 +1908,27 @@
         <v>24</v>
       </c>
       <c r="O22">
-        <v>13.76675</v>
+        <v>13.768750000000001</v>
       </c>
       <c r="P22">
-        <v>104.54891000000001</v>
+        <v>104.54992</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
         <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -1833,6 +1936,9 @@
       <c r="G23" t="s">
         <v>21</v>
       </c>
+      <c r="H23" t="s">
+        <v>125</v>
+      </c>
       <c r="I23" t="s">
         <v>25</v>
       </c>
@@ -1852,27 +1958,27 @@
         <v>24</v>
       </c>
       <c r="O23">
-        <v>13.76661</v>
+        <v>13.76675</v>
       </c>
       <c r="P23">
-        <v>104.54752999999999</v>
+        <v>104.54891000000001</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
@@ -1880,6 +1986,9 @@
       <c r="G24" t="s">
         <v>21</v>
       </c>
+      <c r="H24" t="s">
+        <v>125</v>
+      </c>
       <c r="I24" t="s">
         <v>25</v>
       </c>
@@ -1899,24 +2008,27 @@
         <v>24</v>
       </c>
       <c r="O24">
-        <v>13.76792</v>
+        <v>13.76661</v>
       </c>
       <c r="P24">
-        <v>104.54557</v>
+        <v>104.54752999999999</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -1924,6 +2036,9 @@
       <c r="G25" t="s">
         <v>21</v>
       </c>
+      <c r="H25" t="s">
+        <v>125</v>
+      </c>
       <c r="I25" t="s">
         <v>25</v>
       </c>
@@ -1943,24 +2058,21 @@
         <v>24</v>
       </c>
       <c r="O25">
-        <v>13.7682</v>
+        <v>13.76792</v>
       </c>
       <c r="P25">
-        <v>104.54172</v>
+        <v>104.54557</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
@@ -1971,6 +2083,9 @@
       <c r="G26" t="s">
         <v>21</v>
       </c>
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
       <c r="I26" t="s">
         <v>25</v>
       </c>
@@ -1990,24 +2105,27 @@
         <v>24</v>
       </c>
       <c r="O26">
-        <v>13.761900000000001</v>
+        <v>13.7682</v>
       </c>
       <c r="P26">
-        <v>104.54567</v>
+        <v>104.54172</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -2015,6 +2133,9 @@
       <c r="G27" t="s">
         <v>21</v>
       </c>
+      <c r="H27" t="s">
+        <v>125</v>
+      </c>
       <c r="I27" t="s">
         <v>25</v>
       </c>
@@ -2034,24 +2155,21 @@
         <v>24</v>
       </c>
       <c r="O27">
-        <v>13.75474</v>
+        <v>13.761900000000001</v>
       </c>
       <c r="P27">
-        <v>104.54823</v>
+        <v>104.54567</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
@@ -2062,6 +2180,9 @@
       <c r="G28" t="s">
         <v>21</v>
       </c>
+      <c r="H28" t="s">
+        <v>125</v>
+      </c>
       <c r="I28" t="s">
         <v>25</v>
       </c>
@@ -2081,57 +2202,257 @@
         <v>24</v>
       </c>
       <c r="O28">
-        <v>13.749919999999999</v>
+        <v>13.75474</v>
       </c>
       <c r="P28">
-        <v>104.54510999999999</v>
+        <v>104.54823</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
       <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29">
+        <v>13.749919999999999</v>
+      </c>
+      <c r="P29">
+        <v>104.54510999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
         <v>31</v>
       </c>
-      <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29">
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30">
         <v>13.79095</v>
       </c>
-      <c r="P29">
+      <c r="P30">
         <v>104.54322999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" t="s">
+        <v>120</v>
+      </c>
+      <c r="O31">
+        <v>13.783860000000001</v>
+      </c>
+      <c r="P31">
+        <v>104.54701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32">
+        <v>13.765639999999999</v>
+      </c>
+      <c r="P32">
+        <v>104.55289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33">
+        <v>13.75198</v>
+      </c>
+      <c r="P33">
+        <v>104.54328</v>
       </c>
     </row>
   </sheetData>
